--- a/oscar/NEW GDP.xlsx
+++ b/oscar/NEW GDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Applications\Abyss Web Server\Cirrodocs\gqueers_space_apps\oscar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2478CA9C-9762-4DD8-8A35-932B01FB9F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E994319E-BC48-4E74-9EA9-78517F5BAC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="3315" windowWidth="22125" windowHeight="12285" xr2:uid="{C269872A-288D-449C-811C-DD415D5A1D54}"/>
+    <workbookView xWindow="5280" yWindow="6855" windowWidth="22125" windowHeight="12285" xr2:uid="{C269872A-288D-449C-811C-DD415D5A1D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,8 +70,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,12 +110,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF73265-4987-4130-946B-1FCE71C366A0}">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,20 +447,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="1">
+      <c r="C1" s="4">
         <v>2018</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4">
         <v>2019</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4">
         <v>2020</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -492,25 +492,25 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>403808.8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>404201.9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>405003.8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>405528.3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>405800.7</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>404750.7</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>385527.3</v>
       </c>
     </row>
@@ -518,8 +518,26 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>-4.7</v>
+      <c r="C9">
+        <v>93587.173999999999</v>
+      </c>
+      <c r="D9">
+        <v>92734.202999999994</v>
+      </c>
+      <c r="E9">
+        <v>93990.38</v>
+      </c>
+      <c r="F9">
+        <v>93398.846000000005</v>
+      </c>
+      <c r="G9">
+        <v>93125.014999999999</v>
+      </c>
+      <c r="H9">
+        <v>91737.672000000006</v>
+      </c>
+      <c r="I9">
+        <v>89323.252999999997</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -552,84 +570,84 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>1059301</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>1072550.3999999999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1072949.6000000001</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>1075406.8999999999</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>1079427</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>1081126.1000000001</v>
       </c>
       <c r="I18">
         <v>1077882.7217000001</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>22349394400000</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>22448233060000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>22430919930000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>22575556470000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>22683049530000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>22809540240000</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>22946397481440</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>545485.69999999995</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>546279.30000000005</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>552466.30000000005</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>555880.5</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>558132.4</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>549495.1</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>545214.6</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
